--- a/mock-api/file/deactive.xlsx
+++ b/mock-api/file/deactive.xlsx
@@ -16,150 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>vipasinee-taew@hotmail.com</t>
+    <t>test1002@fakduai.com</t>
   </si>
   <si>
-    <t>duang_ja1989@hotmail.com</t>
+    <t>test1003@fakduai.com</t>
   </si>
   <si>
-    <t>sidazz@hotmail.com</t>
-  </si>
-  <si>
-    <t>fear_ba-555@hotmail.com</t>
-  </si>
-  <si>
-    <t>prapasiri.ta@gmail.com</t>
-  </si>
-  <si>
-    <t>Mae_chazy@hotmail.com</t>
-  </si>
-  <si>
-    <t>xayrung@hotmail.com</t>
-  </si>
-  <si>
-    <t>munam_ntd29@hotmail.com</t>
-  </si>
-  <si>
-    <t>kree005@hotmail.com</t>
-  </si>
-  <si>
-    <t>agzmitai@gmail.com</t>
-  </si>
-  <si>
-    <t>w_waewwin@hotmail.com</t>
-  </si>
-  <si>
-    <t>TON78@hotmail.com</t>
-  </si>
-  <si>
-    <t>sanikame@hotmail.com</t>
-  </si>
-  <si>
-    <t>thansuta.v@gmail.com</t>
-  </si>
-  <si>
-    <t>Tangmay130@hotmail.com</t>
-  </si>
-  <si>
-    <t>suwimon.papoon@ktb.co.th</t>
-  </si>
-  <si>
-    <t>Surinthom_bu@hotmail.com</t>
-  </si>
-  <si>
-    <t>lovery_rung@hotmail.com</t>
-  </si>
-  <si>
-    <t>ross.amon@hotmail.com</t>
-  </si>
-  <si>
-    <t>pum_love_ton@hotmail.com</t>
-  </si>
-  <si>
-    <t>pucca_ying@hotmail.com</t>
-  </si>
-  <si>
-    <t>pu23620@hotmail.co.th</t>
-  </si>
-  <si>
-    <t>polove-m@hotmail.com</t>
-  </si>
-  <si>
-    <t>Pippa2011@windowlive.com</t>
-  </si>
-  <si>
-    <t>password@welovedigg.com</t>
-  </si>
-  <si>
-    <t>PaR---PaR@hotmail.com</t>
-  </si>
-  <si>
-    <t>mewpro55@gmail.com</t>
-  </si>
-  <si>
-    <t>neelnara1731@gmail.com</t>
-  </si>
-  <si>
-    <t>ncpo.2014@gmail.com</t>
-  </si>
-  <si>
-    <t>NASRVEE@hotmail.com</t>
-  </si>
-  <si>
-    <t>Moonoy_Noun@hotmail.com</t>
-  </si>
-  <si>
-    <t>Moonoy_Noun@hotmail.co.th</t>
-  </si>
-  <si>
-    <t>met_boom@hotmail.com</t>
-  </si>
-  <si>
-    <t>mamiew_haha@hotmail.com</t>
-  </si>
-  <si>
-    <t>mam271135@hotmail.com</t>
-  </si>
-  <si>
-    <t>mailer-daemon@googlemail.com</t>
-  </si>
-  <si>
-    <t>ass.kaitia@gmail.com</t>
-  </si>
-  <si>
-    <t>kanompang1108@hotmail.com</t>
-  </si>
-  <si>
-    <t>g179166@gmail.com</t>
-  </si>
-  <si>
-    <t>kamaylot_48@hotmail.com</t>
-  </si>
-  <si>
-    <t>jay_clubzaja@hotmail.com</t>
-  </si>
-  <si>
-    <t>jassadawat@hotmail.com</t>
-  </si>
-  <si>
-    <t>IMP_natnannarak@msn.com</t>
-  </si>
-  <si>
-    <t>hello_mewjubu@hotmail.com</t>
-  </si>
-  <si>
-    <t>hello_benja@hotmail.com</t>
-  </si>
-  <si>
-    <t>webmaster@gmember.com</t>
-  </si>
-  <si>
-    <t>dddf5#  dfg #htmail.com</t>
+    <t>testxxxxx@fakduai.com</t>
   </si>
 </sst>
 </file>
@@ -513,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,291 +399,63 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5" display="fundy_mai@hotmail.com"/>
-    <hyperlink ref="A48" r:id="rId6"/>
-    <hyperlink ref="A47" r:id="rId7"/>
-    <hyperlink ref="A46" r:id="rId8"/>
-    <hyperlink ref="A45" r:id="rId9"/>
-    <hyperlink ref="A44" r:id="rId10"/>
-    <hyperlink ref="A43" r:id="rId11"/>
-    <hyperlink ref="A42" r:id="rId12"/>
-    <hyperlink ref="A41" r:id="rId13"/>
-    <hyperlink ref="A40" r:id="rId14"/>
-    <hyperlink ref="A39" r:id="rId15"/>
-    <hyperlink ref="A38" r:id="rId16"/>
-    <hyperlink ref="A37" r:id="rId17"/>
-    <hyperlink ref="A36" r:id="rId18"/>
-    <hyperlink ref="A35" r:id="rId19"/>
-    <hyperlink ref="A34" r:id="rId20"/>
-    <hyperlink ref="A33" r:id="rId21"/>
-    <hyperlink ref="A32" r:id="rId22"/>
-    <hyperlink ref="A31" r:id="rId23"/>
-    <hyperlink ref="A30" r:id="rId24"/>
-    <hyperlink ref="A29" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A26" r:id="rId28"/>
-    <hyperlink ref="A25" r:id="rId29"/>
-    <hyperlink ref="A24" r:id="rId30"/>
-    <hyperlink ref="A23" r:id="rId31"/>
-    <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A21" r:id="rId33"/>
-    <hyperlink ref="A20" r:id="rId34"/>
-    <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A18" r:id="rId36"/>
-    <hyperlink ref="A17" r:id="rId37"/>
-    <hyperlink ref="A16" r:id="rId38"/>
-    <hyperlink ref="A15" r:id="rId39"/>
-    <hyperlink ref="A14" r:id="rId40"/>
-    <hyperlink ref="A13" r:id="rId41"/>
-    <hyperlink ref="A12" r:id="rId42"/>
-    <hyperlink ref="A11" r:id="rId43"/>
-    <hyperlink ref="A10" r:id="rId44"/>
-    <hyperlink ref="A9" r:id="rId45"/>
-    <hyperlink ref="A8" r:id="rId46"/>
-    <hyperlink ref="A7" r:id="rId47"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
